--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H2">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I2">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J2">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>1407.704741389917</v>
+        <v>1227.368622611258</v>
       </c>
       <c r="R2">
-        <v>12669.34267250925</v>
+        <v>11046.31760350132</v>
       </c>
       <c r="S2">
-        <v>0.5186400398508128</v>
+        <v>0.4008523599216095</v>
       </c>
       <c r="T2">
-        <v>0.5186400398508128</v>
+        <v>0.4008523599216096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H3">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I3">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J3">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>186.1292416944166</v>
+        <v>187.1855126896367</v>
       </c>
       <c r="R3">
-        <v>1675.16317524975</v>
+        <v>1684.66961420673</v>
       </c>
       <c r="S3">
-        <v>0.06857551480183235</v>
+        <v>0.06113383797048763</v>
       </c>
       <c r="T3">
-        <v>0.06857551480183235</v>
+        <v>0.06113383797048765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H4">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I4">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J4">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>429.8437163842249</v>
+        <v>885.1102301543917</v>
       </c>
       <c r="R4">
-        <v>3868.593447458024</v>
+        <v>7965.992071389526</v>
       </c>
       <c r="S4">
-        <v>0.1583671317147222</v>
+        <v>0.289072506834421</v>
       </c>
       <c r="T4">
-        <v>0.1583671317147222</v>
+        <v>0.2890725068344211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H5">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I5">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J5">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>222.9121681566611</v>
+        <v>224.1512475322452</v>
       </c>
       <c r="R5">
-        <v>2006.20951340995</v>
+        <v>2017.361227790207</v>
       </c>
       <c r="S5">
-        <v>0.08212743224964313</v>
+        <v>0.07320665926876301</v>
       </c>
       <c r="T5">
-        <v>0.08212743224964314</v>
+        <v>0.07320665926876302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H6">
         <v>2.377799</v>
       </c>
       <c r="I6">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J6">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>53.89946424620333</v>
+        <v>46.72940660542123</v>
       </c>
       <c r="R6">
-        <v>485.0951782158299</v>
+        <v>420.564659448791</v>
       </c>
       <c r="S6">
-        <v>0.01985815594894365</v>
+        <v>0.01526158691890591</v>
       </c>
       <c r="T6">
-        <v>0.01985815594894365</v>
+        <v>0.01526158691890592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H7">
         <v>2.377799</v>
       </c>
       <c r="I7">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J7">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
-        <v>7.126683680823331</v>
+        <v>7.126683680823333</v>
       </c>
       <c r="R7">
-        <v>64.14015312740999</v>
+        <v>64.14015312741</v>
       </c>
       <c r="S7">
-        <v>0.002625680939723817</v>
+        <v>0.002327538702916367</v>
       </c>
       <c r="T7">
-        <v>0.002625680939723817</v>
+        <v>0.002327538702916367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H8">
         <v>2.377799</v>
       </c>
       <c r="I8">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J8">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>16.45824251457099</v>
+        <v>33.69865831139356</v>
       </c>
       <c r="R8">
-        <v>148.124182631139</v>
+        <v>303.287924802542</v>
       </c>
       <c r="S8">
-        <v>0.006063703064041256</v>
+        <v>0.01100581069245118</v>
       </c>
       <c r="T8">
-        <v>0.006063703064041257</v>
+        <v>0.01100581069245119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H9">
         <v>2.377799</v>
       </c>
       <c r="I9">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J9">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>8.535061426120221</v>
+        <v>8.534074111135444</v>
       </c>
       <c r="R9">
-        <v>76.81555283508199</v>
+        <v>76.80666700021899</v>
       </c>
       <c r="S9">
-        <v>0.003144568934108609</v>
+        <v>0.002787185271134351</v>
       </c>
       <c r="T9">
-        <v>0.00314456893410861</v>
+        <v>0.002787185271134352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H10">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I10">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J10">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>132.86169121589</v>
+        <v>90.60856975956499</v>
       </c>
       <c r="R10">
-        <v>1195.75522094301</v>
+        <v>815.4771278360848</v>
       </c>
       <c r="S10">
-        <v>0.04895017456488703</v>
+        <v>0.0295922987993373</v>
       </c>
       <c r="T10">
-        <v>0.04895017456488703</v>
+        <v>0.0295922987993373</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H11">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I11">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J11">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>17.56721072902999</v>
+        <v>13.81867783815</v>
       </c>
       <c r="R11">
-        <v>158.10489656127</v>
+        <v>124.36810054335</v>
       </c>
       <c r="S11">
-        <v>0.006472279736428119</v>
+        <v>0.004513110014686522</v>
       </c>
       <c r="T11">
-        <v>0.00647227973642812</v>
+        <v>0.004513110014686523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H12">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I12">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J12">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>40.56941874113699</v>
+        <v>65.34187900552999</v>
       </c>
       <c r="R12">
-        <v>365.124768670233</v>
+        <v>588.0769110497699</v>
       </c>
       <c r="S12">
-        <v>0.01494697313575328</v>
+        <v>0.02134032589602451</v>
       </c>
       <c r="T12">
-        <v>0.01494697313575328</v>
+        <v>0.02134032589602452</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H13">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I13">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J13">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>21.03884911593933</v>
+        <v>16.547615422585</v>
       </c>
       <c r="R13">
-        <v>189.349642043454</v>
+        <v>148.928538803265</v>
       </c>
       <c r="S13">
-        <v>0.007751333943176395</v>
+        <v>0.005404367173006444</v>
       </c>
       <c r="T13">
-        <v>0.007751333943176397</v>
+        <v>0.005404367173006445</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H14">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I14">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J14">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N14">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q14">
-        <v>106.2560222444934</v>
+        <v>124.3388907700463</v>
       </c>
       <c r="R14">
-        <v>956.3042002004403</v>
+        <v>1119.050016930417</v>
       </c>
       <c r="S14">
-        <v>0.0391478596263451</v>
+        <v>0.04060845036853651</v>
       </c>
       <c r="T14">
-        <v>0.0391478596263451</v>
+        <v>0.04060845036853653</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H15">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I15">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J15">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q15">
-        <v>14.04936153465334</v>
+        <v>18.96287601563</v>
       </c>
       <c r="R15">
-        <v>126.44425381188</v>
+        <v>170.66588414067</v>
       </c>
       <c r="S15">
-        <v>0.005176200102172417</v>
+        <v>0.006193179018699519</v>
       </c>
       <c r="T15">
-        <v>0.005176200102172417</v>
+        <v>0.006193179018699521</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H16">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I16">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J16">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N16">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q16">
-        <v>32.445357429628</v>
+        <v>89.66631719203933</v>
       </c>
       <c r="R16">
-        <v>292.008216866652</v>
+        <v>806.9968547283539</v>
       </c>
       <c r="S16">
-        <v>0.011953828793431</v>
+        <v>0.0292845638952697</v>
       </c>
       <c r="T16">
-        <v>0.01195382879343101</v>
+        <v>0.02928456389526971</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H17">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I17">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J17">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N17">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O17">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P17">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q17">
-        <v>16.82580132168622</v>
+        <v>22.70769919438366</v>
       </c>
       <c r="R17">
-        <v>151.432211895176</v>
+        <v>204.369292749453</v>
       </c>
       <c r="S17">
-        <v>0.006199122593978719</v>
+        <v>0.007416219253750401</v>
       </c>
       <c r="T17">
-        <v>0.00619912259397872</v>
+        <v>0.007416219253750403</v>
       </c>
     </row>
   </sheetData>
